--- a/Задание_2/Ведомости.xlsx
+++ b/Задание_2/Ведомости.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ds/Projects/excel/volsu-emm/Задание_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonDI\projects\excel\volsu-emm\Задание_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6EC06-5168-3E40-9672-71D52B4B3B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF31EC-861B-4A67-8FD1-B1F29C8DB8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{0C7F0FC7-A974-4E4B-BFB7-605895FB8E58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C7F0FC7-A974-4E4B-BFB7-605895FB8E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость переоценки" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчетная ведомость" sheetId="2" r:id="rId2"/>
+    <sheet name="Ведомость зарплаты" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,15 +29,39 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>ВЕДОМОСТЬ ПЕРЕОЦЕНКИ ОСНОВНЫХ СРЕДСТВ ПРОИЗВОДСТВА</t>
   </si>
@@ -86,16 +112,168 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Клуб</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Суммарная
+выручка</t>
+  </si>
+  <si>
+    <t>Средняя
+выручка</t>
+  </si>
+  <si>
+    <t>Доля в общей
+выручке</t>
+  </si>
+  <si>
+    <t>Альтаир</t>
+  </si>
+  <si>
+    <t>Антей</t>
+  </si>
+  <si>
+    <t>Арена</t>
+  </si>
+  <si>
+    <t>Арсенал</t>
+  </si>
+  <si>
+    <t>Блиндаж</t>
+  </si>
+  <si>
+    <t>Галакс</t>
+  </si>
+  <si>
+    <t>Звезда</t>
+  </si>
+  <si>
+    <t>Патриот</t>
+  </si>
+  <si>
+    <t>Полигон</t>
+  </si>
+  <si>
+    <t>Сеть</t>
+  </si>
+  <si>
+    <t>РАСЧЕТ ЗАРАБОТНОЙ ПЛАТЫ СОТРУДНИКОВ</t>
+  </si>
+  <si>
+    <t>НАУЧНО-ПРОЕКТНОГО ОТДЕЛА</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Фамилия И.О.</t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
+    <t>Тарифная ставка</t>
+  </si>
+  <si>
+    <t>Стаж</t>
+  </si>
+  <si>
+    <t>Надбавка за стаж</t>
+  </si>
+  <si>
+    <t>Процент налога</t>
+  </si>
+  <si>
+    <t>Сумма налога</t>
+  </si>
+  <si>
+    <t>Выплата</t>
+  </si>
+  <si>
+    <t>Антонов Р.И.</t>
+  </si>
+  <si>
+    <t>Борисов И.П.</t>
+  </si>
+  <si>
+    <t>Вольская О.А.</t>
+  </si>
+  <si>
+    <t>Иванов В.А.</t>
+  </si>
+  <si>
+    <t>Комаров Н.И.</t>
+  </si>
+  <si>
+    <t>Крючков Н.Р.</t>
+  </si>
+  <si>
+    <t>Новиков Л.Д.</t>
+  </si>
+  <si>
+    <t>Огарев Н.И.</t>
+  </si>
+  <si>
+    <t>Петров К.О.</t>
+  </si>
+  <si>
+    <t>Реутова Е.Г.</t>
+  </si>
+  <si>
+    <t>Сидоров И.Н.</t>
+  </si>
+  <si>
+    <t>Степаненко В.Д.</t>
+  </si>
+  <si>
+    <t>Тимофеев Н.Н.</t>
+  </si>
+  <si>
+    <t>Уткина Е.В.</t>
+  </si>
+  <si>
+    <t>Федоров А.Н.</t>
+  </si>
+  <si>
+    <t>лаборант</t>
+  </si>
+  <si>
+    <t>инженер</t>
+  </si>
+  <si>
+    <t>мл.н.сотрудник</t>
+  </si>
+  <si>
+    <t>ст.н.сотрудник</t>
+  </si>
+  <si>
+    <t>зав.лабораторией</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,###.00,&quot; тыс.руб.&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +304,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,18 +367,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,11 +384,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -737,7 +997,1243 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Данные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> о работе компьютерных клубов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+          </c:spPr>
+          <c:explosion val="24"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="31"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-B9B7-46D8-B60D-B1E053220CAE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B9B7-46D8-B60D-B1E053220CAE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B9B7-46D8-B60D-B1E053220CAE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B9B7-46D8-B60D-B1E053220CAE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4088854215215208E-16"/>
+                  <c:y val="5.3914197554310789E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B9B7-46D8-B60D-B1E053220CAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2378920934594992E-2"/>
+                  <c:y val="-9.9314509912571489E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.5881912455467538E-2"/>
+                      <c:h val="9.3597996259744423E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B9B7-46D8-B60D-B1E053220CAE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Отчетная ведомость'!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Альтаир</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Антей</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Арена</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Арсенал</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Блиндаж</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Галакс</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Звезда</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Патриот</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Полигон</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Сеть</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Отчетная ведомость'!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.4349874834339571E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5969665734059782E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12393854611495607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10734796053600354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13998920139400187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2694252196534623E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11903008884307661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1382221567761259E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1386639179305944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6634270848672257E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9B7-46D8-B60D-B1E053220CAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4458351024895674E-2"/>
+          <c:y val="0.89669297953584193"/>
+          <c:w val="0.92397965879265087"/>
+          <c:h val="6.7016487064390923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнительная диаграмма</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> заработной платы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ведомость зарплаты'!$B$5:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Антонов Р.И.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Борисов И.П.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вольская О.А.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Иванов В.А.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Комаров Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Крючков Н.Р.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Новиков Л.Д.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Огарев Н.И.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Петров К.О.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Реутова Е.Г.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Сидоров И.Н.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Степаненко В.Д.</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Тимофеев Н.Н.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Уткина Е.В.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Федоров А.Н.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ведомость зарплаты'!$K$5:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "₽"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26303.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15858.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32818.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26830.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31556.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28514.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17299.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29714.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25160.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30281.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D169-4095-A27E-CFFEEDC85567}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1102089727"/>
+        <c:axId val="1102090143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1102089727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102090143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1102090143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;₽&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102089727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1280,6 +2776,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1301,6 +3819,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AC8CC6-B381-AC85-D8D4-F2891CD4B1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222998</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BD38F0-AD97-4162-8A20-F02B5D883215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>778565</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122748</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF8D25C-BB8B-4FAE-857A-B5367AC2A553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,295 +4224,295 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>19087.8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>568.79999999999995</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>B5-C5</f>
         <v>18519</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>IF(B5&lt;=700,3.3,IF(700&lt;B5&lt;1000,4.2,5.1))</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>B5*E5</f>
         <v>97347.779999999984</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>D5*E5</f>
         <v>94446.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>407.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>203.1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:D12" si="0">B6-C6</f>
         <v>204.1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:E12" si="1">IF(B6&lt;=700,3.3,IF(700&lt;B6&lt;1000,4.2,5.1))</f>
         <v>3.3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" ref="F6:F12" si="2">B6*E6</f>
         <v>1343.76</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G12" si="3">D6*E6</f>
         <v>673.53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>673</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>198.9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>474.1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>2220.9</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="3"/>
         <v>1564.53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>821.6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>401.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>420.40000000000003</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>4190.16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>2144.04</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>598.4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>131.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>466.9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>1974.7199999999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>1540.7699999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>610</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>345.6</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>264.39999999999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>872.51999999999987</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>756.3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>159.6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>596.69999999999993</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="2"/>
         <v>3857.1299999999997</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>3043.1699999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>614.29999999999995</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>148.69999999999999</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>465.59999999999997</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="2"/>
         <v>2027.1899999999998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>1536.4799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>SUM(B5:B12)</f>
         <v>23568.6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f t="shared" ref="C13:G13" si="4">SUM(C5:C12)</f>
         <v>2157.3999999999996</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f t="shared" si="4"/>
         <v>21411.200000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="4"/>
         <v>31.8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="4"/>
         <v>114974.63999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="4"/>
         <v>105821.93999999999</v>
       </c>
@@ -1925,4 +4525,1309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E364F0F3-5EFB-4F71-90B5-43E1B92404F3}">
+  <dimension ref="A4:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10">
+        <v>345000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>543000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>423000</v>
+      </c>
+      <c r="E5" s="10">
+        <f>SUM(B5:D5)</f>
+        <v>1311000</v>
+      </c>
+      <c r="F5" s="11">
+        <f>_xlfn.RANK.EQ(E5,$E$5:$E$14)</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <f>AVERAGE(B5:D5)</f>
+        <v>437000</v>
+      </c>
+      <c r="H5" s="12">
+        <f>E5/$E$15</f>
+        <v>6.4349874834339571E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10">
+        <v>657000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>234000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>453000</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:E14" si="0">SUM(B6:D6)</f>
+        <v>1344000</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" ref="F6:F14" si="1">_xlfn.RANK.EQ(E6,$E$5:$E$14)</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:G14" si="2">AVERAGE(B6:D6)</f>
+        <v>448000</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H14" si="3">E6/$E$15</f>
+        <v>6.5969665734059782E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
+        <v>765000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>904000</v>
+      </c>
+      <c r="D7" s="10">
+        <v>856000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>2525000</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="2"/>
+        <v>841666.66666666663</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.12393854611495607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10">
+        <v>798000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>735000</v>
+      </c>
+      <c r="D8" s="10">
+        <v>654000</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2187000</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>729000</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.10734796053600354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10">
+        <v>897000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>984000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>971000</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>2852000</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="2"/>
+        <v>950666.66666666663</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.13998920139400187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10">
+        <v>375000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>594000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>512000</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>1481000</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="2"/>
+        <v>493666.66666666669</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>7.2694252196534623E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
+        <v>912000</v>
+      </c>
+      <c r="C11" s="10">
+        <v>634000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>879000</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>2425000</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>808333.33333333337</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.11903008884307661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10">
+        <v>467000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>593000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>598000</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>1658000</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="2"/>
+        <v>552666.66666666663</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="3"/>
+        <v>8.1382221567761259E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1003000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>945000</v>
+      </c>
+      <c r="D13" s="10">
+        <v>877000</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>2825000</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="2"/>
+        <v>941666.66666666663</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1386639179305944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10">
+        <v>545000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>567000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>653000</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>1765000</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="2"/>
+        <v>588333.33333333337</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="3"/>
+        <v>8.6634270848672257E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <f>SUM(B5:B14)</f>
+        <v>6764000</v>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C5:C14)</f>
+        <v>6733000</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(D5:D14)</f>
+        <v>6876000</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ref="E15:H15" si="4">SUM(E5:E14)</f>
+        <v>20373000</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="4"/>
+        <v>6791000</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E898B070-F369-4C3E-A2DF-BF364A1988B2}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="18">
+        <f>IF(C5="лаборант", 15670,
+IF(C5="инженер", 28500,
+IF(C5="мл.н.сотрудник", 25700,
+IF(C5="ст.н.сотрудник", 29700,
+IF(C5="зав.лабораторией", 31500, 0)))))</f>
+        <v>15670</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" cm="1">
+        <f t="array" ref="F5">_xlfn.IFS(
+E5&lt;=5, 0.1,
+E5&lt;=7, 0.15,
+E5&lt;=10, 0.2,
+E5&lt;=15, 0.25,
+E5&gt;15, 0.3
+)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="18">
+        <f>D5*F5</f>
+        <v>1567</v>
+      </c>
+      <c r="H5" s="18">
+        <f>D5+G5</f>
+        <v>17237</v>
+      </c>
+      <c r="I5" s="20" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(
+H5&lt;=20000, 0.08,
+H5&lt;=30000, 0.11,
+H5&lt;=35000, 0.13,
+H5&gt;35000, 0.15
+)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="18">
+        <f>H5*I5</f>
+        <v>1378.96</v>
+      </c>
+      <c r="K5" s="18">
+        <f>H5-J5</f>
+        <v>15858.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D19" si="0">IF(C6="лаборант", 15670,
+IF(C6="инженер", 28500,
+IF(C6="мл.н.сотрудник", 25700,
+IF(C6="ст.н.сотрудник", 29700,
+IF(C6="зав.лабораторией", 31500, 0)))))</f>
+        <v>28500</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" cm="1">
+        <f t="array" ref="F6">_xlfn.IFS(
+E6&lt;=5, 0.1,
+E6&lt;=7, 0.15,
+E6&lt;=10, 0.2,
+E6&lt;=15, 0.25,
+E6&gt;15, 0.3
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G19" si="1">D6*F6</f>
+        <v>4275</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:H19" si="2">D6+G6</f>
+        <v>32775</v>
+      </c>
+      <c r="I6" s="20" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(
+H6&lt;=20000, 0.08,
+H6&lt;=30000, 0.11,
+H6&lt;=35000, 0.13,
+H6&gt;35000, 0.15
+)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6:J19" si="3">H6*I6</f>
+        <v>4260.75</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:K19" si="4">H6-J6</f>
+        <v>28514.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>25700</v>
+      </c>
+      <c r="E7" s="19">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" cm="1">
+        <f t="array" ref="F7">_xlfn.IFS(
+E7&lt;=5, 0.1,
+E7&lt;=7, 0.15,
+E7&lt;=10, 0.2,
+E7&lt;=15, 0.25,
+E7&gt;15, 0.3
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>3855</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="2"/>
+        <v>29555</v>
+      </c>
+      <c r="I7" s="20" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(
+H7&lt;=20000, 0.08,
+H7&lt;=30000, 0.11,
+H7&lt;=35000, 0.13,
+H7&gt;35000, 0.15
+)</f>
+        <v>0.11</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="3"/>
+        <v>3251.05</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="4"/>
+        <v>26303.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>15670</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" cm="1">
+        <f t="array" ref="F8">_xlfn.IFS(
+E8&lt;=5, 0.1,
+E8&lt;=7, 0.15,
+E8&lt;=10, 0.2,
+E8&lt;=15, 0.25,
+E8&gt;15, 0.3
+)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="1"/>
+        <v>1567</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="2"/>
+        <v>17237</v>
+      </c>
+      <c r="I8" s="20" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(
+H8&lt;=20000, 0.08,
+H8&lt;=30000, 0.11,
+H8&lt;=35000, 0.13,
+H8&gt;35000, 0.15
+)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="3"/>
+        <v>1378.96</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="4"/>
+        <v>15858.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="E9" s="19">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" cm="1">
+        <f t="array" ref="F9">_xlfn.IFS(
+E9&lt;=5, 0.1,
+E9&lt;=7, 0.15,
+E9&lt;=10, 0.2,
+E9&lt;=15, 0.25,
+E9&gt;15, 0.3
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="1"/>
+        <v>8910</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="2"/>
+        <v>38610</v>
+      </c>
+      <c r="I9" s="20" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(
+H9&lt;=20000, 0.08,
+H9&lt;=30000, 0.11,
+H9&lt;=35000, 0.13,
+H9&gt;35000, 0.15
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="3"/>
+        <v>5791.5</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="4"/>
+        <v>32818.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" cm="1">
+        <f t="array" ref="F10">_xlfn.IFS(
+E10&lt;=5, 0.1,
+E10&lt;=7, 0.15,
+E10&lt;=10, 0.2,
+E10&lt;=15, 0.25,
+E10&gt;15, 0.3
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
+        <v>4455</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="2"/>
+        <v>34155</v>
+      </c>
+      <c r="I10" s="20" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(
+H10&lt;=20000, 0.08,
+H10&lt;=30000, 0.11,
+H10&lt;=35000, 0.13,
+H10&gt;35000, 0.15
+)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="3"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="4"/>
+        <v>29714.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>25700</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" cm="1">
+        <f t="array" ref="F11">_xlfn.IFS(
+E11&lt;=5, 0.1,
+E11&lt;=7, 0.15,
+E11&lt;=10, 0.2,
+E11&lt;=15, 0.25,
+E11&gt;15, 0.3
+)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="1"/>
+        <v>5140</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="2"/>
+        <v>30840</v>
+      </c>
+      <c r="I11" s="20" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(
+H11&lt;=20000, 0.08,
+H11&lt;=30000, 0.11,
+H11&lt;=35000, 0.13,
+H11&gt;35000, 0.15
+)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="3"/>
+        <v>4009.2000000000003</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="4"/>
+        <v>26830.799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>25700</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" cm="1">
+        <f t="array" ref="F12">_xlfn.IFS(
+E12&lt;=5, 0.1,
+E12&lt;=7, 0.15,
+E12&lt;=10, 0.2,
+E12&lt;=15, 0.25,
+E12&gt;15, 0.3
+)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="1"/>
+        <v>2570</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="2"/>
+        <v>28270</v>
+      </c>
+      <c r="I12" s="20" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(
+H12&lt;=20000, 0.08,
+H12&lt;=30000, 0.11,
+H12&lt;=35000, 0.13,
+H12&gt;35000, 0.15
+)</f>
+        <v>0.11</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="3"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="4"/>
+        <v>25160.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>31500</v>
+      </c>
+      <c r="E13" s="19">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" cm="1">
+        <f t="array" ref="F13">_xlfn.IFS(
+E13&lt;=5, 0.1,
+E13&lt;=7, 0.15,
+E13&lt;=10, 0.2,
+E13&lt;=15, 0.25,
+E13&gt;15, 0.3
+)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>37800</v>
+      </c>
+      <c r="I13" s="20" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(
+H13&lt;=20000, 0.08,
+H13&lt;=30000, 0.11,
+H13&lt;=35000, 0.13,
+H13&gt;35000, 0.15
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="3"/>
+        <v>5670</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="4"/>
+        <v>32130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="E14" s="19">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" cm="1">
+        <f t="array" ref="F14">_xlfn.IFS(
+E14&lt;=5, 0.1,
+E14&lt;=7, 0.15,
+E14&lt;=10, 0.2,
+E14&lt;=15, 0.25,
+E14&gt;15, 0.3
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="1"/>
+        <v>7425</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="2"/>
+        <v>37125</v>
+      </c>
+      <c r="I14" s="20" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(
+H14&lt;=20000, 0.08,
+H14&lt;=30000, 0.11,
+H14&lt;=35000, 0.13,
+H14&gt;35000, 0.15
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="3"/>
+        <v>5568.75</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="4"/>
+        <v>31556.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+      <c r="E15" s="19">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" cm="1">
+        <f t="array" ref="F15">_xlfn.IFS(
+E15&lt;=5, 0.1,
+E15&lt;=7, 0.15,
+E15&lt;=10, 0.2,
+E15&lt;=15, 0.25,
+E15&gt;15, 0.3
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="1"/>
+        <v>4275</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="2"/>
+        <v>32775</v>
+      </c>
+      <c r="I15" s="20" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(
+H15&lt;=20000, 0.08,
+H15&lt;=30000, 0.11,
+H15&lt;=35000, 0.13,
+H15&gt;35000, 0.15
+)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="3"/>
+        <v>4260.75</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="4"/>
+        <v>28514.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>15670</v>
+      </c>
+      <c r="E16" s="19">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" cm="1">
+        <f t="array" ref="F16">_xlfn.IFS(
+E16&lt;=5, 0.1,
+E16&lt;=7, 0.15,
+E16&lt;=10, 0.2,
+E16&lt;=15, 0.25,
+E16&gt;15, 0.3
+)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>3134</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="2"/>
+        <v>18804</v>
+      </c>
+      <c r="I16" s="20" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(
+H16&lt;=20000, 0.08,
+H16&lt;=30000, 0.11,
+H16&lt;=35000, 0.13,
+H16&gt;35000, 0.15
+)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="3"/>
+        <v>1504.32</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="4"/>
+        <v>17299.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="E17" s="19">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" cm="1">
+        <f t="array" ref="F17">_xlfn.IFS(
+E17&lt;=5, 0.1,
+E17&lt;=7, 0.15,
+E17&lt;=10, 0.2,
+E17&lt;=15, 0.25,
+E17&gt;15, 0.3
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="1"/>
+        <v>4455</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="2"/>
+        <v>34155</v>
+      </c>
+      <c r="I17" s="20" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(
+H17&lt;=20000, 0.08,
+H17&lt;=30000, 0.11,
+H17&lt;=35000, 0.13,
+H17&gt;35000, 0.15
+)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="3"/>
+        <v>4440.1500000000005</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="4"/>
+        <v>29714.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>25700</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" cm="1">
+        <f t="array" ref="F18">_xlfn.IFS(
+E18&lt;=5, 0.1,
+E18&lt;=7, 0.15,
+E18&lt;=10, 0.2,
+E18&lt;=15, 0.25,
+E18&gt;15, 0.3
+)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="1"/>
+        <v>2570</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
+        <v>28270</v>
+      </c>
+      <c r="I18" s="20" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(
+H18&lt;=20000, 0.08,
+H18&lt;=30000, 0.11,
+H18&lt;=35000, 0.13,
+H18&gt;35000, 0.15
+)</f>
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="3"/>
+        <v>3109.7</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
+        <v>25160.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+      <c r="E19" s="19">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" cm="1">
+        <f t="array" ref="F19">_xlfn.IFS(
+E19&lt;=5, 0.1,
+E19&lt;=7, 0.15,
+E19&lt;=10, 0.2,
+E19&lt;=15, 0.25,
+E19&gt;15, 0.3
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="1"/>
+        <v>7125</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="2"/>
+        <v>35625</v>
+      </c>
+      <c r="I19" s="20" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(
+H19&lt;=20000, 0.08,
+H19&lt;=30000, 0.11,
+H19&lt;=35000, 0.13,
+H19&gt;35000, 0.15
+)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="3"/>
+        <v>5343.75</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="4"/>
+        <v>30281.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E5:E19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>10</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="СТАЖ НЕ МОЖЕТ БЫТЬ ОТРИЦАТЕЛЬНЫМ!" sqref="E5:E19" xr:uid="{5501EA3C-8355-41FD-9B87-87AA116BE26A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ВНИМАНИЕ" prompt="БУДЬТЕ ВНИМАТЕЛЬНЫ ПРИ ВВОДЕ ТАРИФНОЙ СТАВКИ!" sqref="D5:D19" xr:uid="{301F3B01-6369-455D-A8D8-6DE103346B1A}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>